--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerry\Dropbox\My PC (LAPTOP-2SKMB343)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46E32FF-C4C6-4485-99FA-535F1CE8E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927B6CF-8860-42AF-A4B9-5CD32874D5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,23 +33,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+  <si>
+    <t>Retirement planning</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/borrowing_saving/retirement_planning.ipynb</t>
+  </si>
+  <si>
+    <t>Inflation and Real Returns</t>
+  </si>
+  <si>
+    <t>Net Present Value</t>
+  </si>
+  <si>
+    <t>Internal Rate of Return</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/8529218aa2a8cd5af5a396a496e42aa479046308/borrowing_saving/irr.ipynb</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Amortization Schedule</t>
+  </si>
+  <si>
+    <t>Bond Price Yield</t>
+  </si>
   <si>
     <t>Term structure of interest rates</t>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit spreads</t>
+  </si>
+  <si>
+    <t>Treasury Inflation Protected Securities</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/bonds/treasuryyields.ipynb</t>
+  </si>
+  <si>
+    <t>Term structure of real interest rates</t>
+  </si>
+  <si>
+    <t>Clearn and diry bond prices and yields</t>
+  </si>
+  <si>
+    <t>Hypothetical clean and dirty price paths</t>
+  </si>
+  <si>
+    <t>Diversification</t>
+  </si>
+  <si>
+    <t>Portfolios of two risky assets</t>
+  </si>
+  <si>
+    <t>Portfolios of three risky assets</t>
+  </si>
+  <si>
+    <t>Optimal portfolios</t>
+  </si>
+  <si>
+    <t>Frontier with short sales</t>
+  </si>
+  <si>
+    <t>Optimal Portfolios with short sales</t>
+  </si>
+  <si>
+    <t>Option Portfolios</t>
+  </si>
+  <si>
+    <t>Put-call parity</t>
+  </si>
+  <si>
+    <t>Black-Scholes formula</t>
+  </si>
+  <si>
+    <t>Black-Scholes in relation to underlying price</t>
+  </si>
+  <si>
+    <t>Greeks</t>
+  </si>
+  <si>
+    <t>Delta hedges</t>
+  </si>
+  <si>
+    <t>Delta hedges of option portfolios</t>
+  </si>
+  <si>
+    <t>Binomrial trees</t>
+  </si>
+  <si>
+    <t>Calibrated binomial trees</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration and risk</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/5a82170741987e45ed77e9f9c351027c1f442d31/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/524f2bcea445274d061ffb2350a65cb9ef63e71a/borrowing_saving/npv.ipynb</t>
+  </si>
+  <si>
+    <t>Stock market returns</t>
+  </si>
+  <si>
+    <t>Best and worst periods</t>
+  </si>
+  <si>
+    <t>Stock, bond, and bill returns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real stock, bond, and bill returns</t>
+  </si>
+  <si>
+    <t>Inflation and returns</t>
+  </si>
+  <si>
+    <t>Correlations of returns and inflation</t>
+  </si>
+  <si>
+    <t>Long run risk</t>
+  </si>
+  <si>
+    <t>Retirement planning simulation</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/6b7afed1e2ee991e678813b2f2bb456263b77df2/risk/compounded_returns.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/41e091bbd546a8eb31695d168e7115f5bae0ed34/risk/longrunrisk_sim.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/dd47811d4b5f3153721553e5b9263d1ed2c1b8ff/risk/returns.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/4e76e4d71e9011a0b94bc66a25b8a113f13f7bf0/risk/retirement_planning_sim.ipynb</t>
+  </si>
+  <si>
+    <t>Optimal portfolios of stocks and bonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal portfolios of ETFs or stocks</t>
+  </si>
+  <si>
+    <t>Optimal portfolios from user inputs</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
+  </si>
+  <si>
+    <t>Risk-free and one risky asset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/788aaf8c83ea7bed98331c85666379fd7ec64d6b/portfolios/three_assets.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/5c01be982a3825fbb79e62d5a47e1780516782da/portfolios/two_assets.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/capm/alphas_mve.ipynb</t>
+  </si>
+  <si>
+    <t>CAPM cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Alphas and mean-variance efficiency</t>
+  </si>
+  <si>
+    <t>Alphas and Sharpe ratios</t>
+  </si>
+  <si>
+    <t>Security Market Line for industry returns</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/3b3f6348244e1989f2ba6cc268c46f2495ba42f5/capm/alphas_sharpes.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/c3f5405bc3e54bf51d93e73e7ca9871169c2cc18/capm/capm_costequity.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/25c4db4de93d0ff6f504a93ab492511c2870f0ca/capm/sml_industries.ipynb</t>
+  </si>
+  <si>
+    <t>Returns from sorts on characteristics</t>
+  </si>
+  <si>
+    <t>Returns from sorts on GHZ characteristics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/b30491a9f34e6392aeb823e33b51dc7b9d4d1a96/factor_investing/quintiles.ipynb</t>
+  </si>
+  <si>
+    <t>Fama-French cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Fama-French model for industries</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/6e9da6b86df9b1d7de949060a4d6a40987f830d1/fama_french/ff_costequity.ipynb</t>
+  </si>
+  <si>
+    <t>Performance evaluation tear sheet</t>
+  </si>
+  <si>
+    <t>Mutual Fund Alphas</t>
+  </si>
+  <si>
+    <t>Tax-advantaged savings vehicles</t>
+  </si>
+  <si>
+    <t>Asset location with taxes</t>
+  </si>
+  <si>
+    <t>Asset location with taxes: Comparison</t>
+  </si>
+  <si>
+    <t>Market option data</t>
+  </si>
+  <si>
+    <t>Binomial convergence</t>
+  </si>
+  <si>
+    <t>European and American option values</t>
+  </si>
+  <si>
+    <t>American call with a single cash dividend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American option exercise boundaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/c92f7acd7d01b3869d252a90a0c6c6bfcb7bdfc0/options/greeks.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
+  </si>
+  <si>
+    <t>Implied volatilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/7e11dec03aef4dd2658d34214f46547fe724a9c2/options/option_portfolios.ipynb</t>
+  </si>
+  <si>
+    <t>Forward curves</t>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
+  </si>
+  <si>
+    <t>Term structure movements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle components</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -59,8 +320,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,13 +360,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,29 +684,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.6796875" customWidth="1"/>
+    <col min="1" max="1" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{64346203-FE68-497F-8117-CC224E4DD2E5}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{D87C1E87-C36B-434B-A185-798266724E6B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{184806A9-D56E-4F0A-89FD-51A9408C873C}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{8A3FFA7D-3DF4-4BB8-BE0C-3B1D00FCB75D}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{56F7CA8C-7C4C-41DD-B93B-88025C2AE566}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{CEAB43AC-306D-4D9C-B62A-032D8521F6A4}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{EEBBBFCC-AEE7-4BB3-AB1E-0AA9711ACA7F}"/>
+    <hyperlink ref="B23" r:id="rId7" xr:uid="{29A6555D-C448-4775-BAB7-6B5D714CBF60}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{22035CCF-9D6C-449F-BBD8-E4578DBAEAAB}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{22DF5ED5-9381-4056-AE10-777D0DFE141B}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{B55449AE-E29A-4F08-B0DB-6EA3AB41A56A}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{DCC8E2D4-DC3C-4234-A67C-DD377BBA3E94}"/>
+    <hyperlink ref="B27" r:id="rId12" xr:uid="{8D855C20-947F-499D-8B52-6BF1D9620062}"/>
+    <hyperlink ref="B38" r:id="rId13" xr:uid="{A4E3DB5A-5CCC-4B2D-9A5E-749B4373BADA}"/>
+    <hyperlink ref="B39" r:id="rId14" xr:uid="{7680683B-33EC-44F6-8063-B43DA2D41E39}"/>
+    <hyperlink ref="B37" r:id="rId15" xr:uid="{96DC19D7-C4B8-416B-9B55-6A8C017941DD}"/>
+    <hyperlink ref="B40" r:id="rId16" xr:uid="{9D18645B-2FC6-4487-A0C4-BD012C1D143E}"/>
+    <hyperlink ref="B42" r:id="rId17" xr:uid="{115C602A-999F-4537-A5A2-CECB46A81412}"/>
+    <hyperlink ref="B45" r:id="rId18" xr:uid="{EC9CB3AB-C926-4112-AC58-BC6D33FB0F61}"/>
+    <hyperlink ref="B61" r:id="rId19" xr:uid="{8BA7A550-437D-481E-A5D8-1C7BAF78F053}"/>
+    <hyperlink ref="B60" r:id="rId20" xr:uid="{8BA5C361-05A3-4CEC-B20F-CAA241189B32}"/>
+    <hyperlink ref="B56" r:id="rId21" xr:uid="{C4B3EA22-2253-4650-9AE5-745B11A46802}"/>
+    <hyperlink ref="B75" r:id="rId22" xr:uid="{0C8AB159-278F-4BF7-8D2D-52BCF903E520}"/>
+    <hyperlink ref="B9" r:id="rId23" xr:uid="{D82E2B8D-E03D-4F6E-ACC7-5C7ED59CAA3B}"/>
+    <hyperlink ref="B11" r:id="rId24" xr:uid="{47F24924-3F95-4F51-9E60-60CDB73D765F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId25"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927B6CF-8860-42AF-A4B9-5CD32874D5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFA887-F31A-406A-BA68-BE77E7A968CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Retirement planning</t>
   </si>
   <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/borrowing_saving/retirement_planning.ipynb</t>
-  </si>
-  <si>
     <t>Inflation and Real Returns</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>Internal Rate of Return</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/8529218aa2a8cd5af5a396a496e42aa479046308/borrowing_saving/irr.ipynb</t>
   </si>
   <si>
     <t>Amortization</t>
@@ -72,9 +66,6 @@
     <t>Treasury Inflation Protected Securities</t>
   </si>
   <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/bonds/treasuryyields.ipynb</t>
-  </si>
-  <si>
     <t>Term structure of real interest rates</t>
   </si>
   <si>
@@ -135,13 +126,6 @@
     <t>Duration and risk</t>
   </si>
   <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/5a82170741987e45ed77e9f9c351027c1f442d31/bonds/term_structure.ipynb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/524f2bcea445274d061ffb2350a65cb9ef63e71a/borrowing_saving/npv.ipynb</t>
-  </si>
-  <si>
     <t>Stock market returns</t>
   </si>
   <si>
@@ -167,18 +151,6 @@
     <t>Retirement planning simulation</t>
   </si>
   <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/6b7afed1e2ee991e678813b2f2bb456263b77df2/risk/compounded_returns.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/41e091bbd546a8eb31695d168e7115f5bae0ed34/risk/longrunrisk_sim.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/dd47811d4b5f3153721553e5b9263d1ed2c1b8ff/risk/returns.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/4e76e4d71e9011a0b94bc66a25b8a113f13f7bf0/risk/retirement_planning_sim.ipynb</t>
-  </si>
-  <si>
     <t>Optimal portfolios of stocks and bonds</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,118 +161,175 @@
     <t>Optimal portfolios from user inputs</t>
   </si>
   <si>
+    <t>Risk-free and one risky asset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPM cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Alphas and mean-variance efficiency</t>
+  </si>
+  <si>
+    <t>Alphas and Sharpe ratios</t>
+  </si>
+  <si>
+    <t>Security Market Line for industry returns</t>
+  </si>
+  <si>
+    <t>Returns from sorts on characteristics</t>
+  </si>
+  <si>
+    <t>Returns from sorts on GHZ characteristics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fama-French cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Fama-French model for industries</t>
+  </si>
+  <si>
+    <t>Performance evaluation tear sheet</t>
+  </si>
+  <si>
+    <t>Mutual Fund Alphas</t>
+  </si>
+  <si>
+    <t>Tax-advantaged savings vehicles</t>
+  </si>
+  <si>
+    <t>Asset location with taxes</t>
+  </si>
+  <si>
+    <t>Asset location with taxes: Comparison</t>
+  </si>
+  <si>
+    <t>Market option data</t>
+  </si>
+  <si>
+    <t>Binomial convergence</t>
+  </si>
+  <si>
+    <t>European and American option values</t>
+  </si>
+  <si>
+    <t>American call with a single cash dividend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American option exercise boundaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implied volatilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward curves</t>
+  </si>
+  <si>
+    <t>Term structure movements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle components</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/bonds/treasuryyields.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
-  </si>
-  <si>
-    <t>Risk-free and one risky asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/788aaf8c83ea7bed98331c85666379fd7ec64d6b/portfolios/three_assets.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/5c01be982a3825fbb79e62d5a47e1780516782da/portfolios/two_assets.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/e280c8eae08a0bde118428d80f0e4897dbe916de/capm/alphas_mve.ipynb</t>
-  </si>
-  <si>
-    <t>CAPM cost of equity calculator</t>
-  </si>
-  <si>
-    <t>Alphas and mean-variance efficiency</t>
-  </si>
-  <si>
-    <t>Alphas and Sharpe ratios</t>
-  </si>
-  <si>
-    <t>Security Market Line for industry returns</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/3b3f6348244e1989f2ba6cc268c46f2495ba42f5/capm/alphas_sharpes.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/c3f5405bc3e54bf51d93e73e7ca9871169c2cc18/capm/capm_costequity.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/25c4db4de93d0ff6f504a93ab492511c2870f0ca/capm/sml_industries.ipynb</t>
-  </si>
-  <si>
-    <t>Returns from sorts on characteristics</t>
-  </si>
-  <si>
-    <t>Returns from sorts on GHZ characteristics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/b30491a9f34e6392aeb823e33b51dc7b9d4d1a96/factor_investing/quintiles.ipynb</t>
-  </si>
-  <si>
-    <t>Fama-French cost of equity calculator</t>
-  </si>
-  <si>
-    <t>Fama-French model for industries</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/6e9da6b86df9b1d7de949060a4d6a40987f830d1/fama_french/ff_costequity.ipynb</t>
-  </si>
-  <si>
-    <t>Performance evaluation tear sheet</t>
-  </si>
-  <si>
-    <t>Mutual Fund Alphas</t>
-  </si>
-  <si>
-    <t>Tax-advantaged savings vehicles</t>
-  </si>
-  <si>
-    <t>Asset location with taxes</t>
-  </si>
-  <si>
-    <t>Asset location with taxes: Comparison</t>
-  </si>
-  <si>
-    <t>Market option data</t>
-  </si>
-  <si>
-    <t>Binomial convergence</t>
-  </si>
-  <si>
-    <t>European and American option values</t>
-  </si>
-  <si>
-    <t>American call with a single cash dividend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>American option exercise boundaries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/c92f7acd7d01b3869d252a90a0c6c6bfcb7bdfc0/options/greeks.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
-  </si>
-  <si>
-    <t>Implied volatilities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/7e11dec03aef4dd2658d34214f46547fe724a9c2/options/option_portfolios.ipynb</t>
-  </si>
-  <si>
-    <t>Forward curves</t>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
-  </si>
-  <si>
-    <t>Term structure movements</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Principle components</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,15 +389,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,481 +722,481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{D87C1E87-C36B-434B-A185-798266724E6B}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{184806A9-D56E-4F0A-89FD-51A9408C873C}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{8A3FFA7D-3DF4-4BB8-BE0C-3B1D00FCB75D}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{56F7CA8C-7C4C-41DD-B93B-88025C2AE566}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{CEAB43AC-306D-4D9C-B62A-032D8521F6A4}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{EEBBBFCC-AEE7-4BB3-AB1E-0AA9711ACA7F}"/>
-    <hyperlink ref="B23" r:id="rId7" xr:uid="{29A6555D-C448-4775-BAB7-6B5D714CBF60}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{22035CCF-9D6C-449F-BBD8-E4578DBAEAAB}"/>
-    <hyperlink ref="B24" r:id="rId9" xr:uid="{22DF5ED5-9381-4056-AE10-777D0DFE141B}"/>
-    <hyperlink ref="B30" r:id="rId10" xr:uid="{B55449AE-E29A-4F08-B0DB-6EA3AB41A56A}"/>
-    <hyperlink ref="B29" r:id="rId11" xr:uid="{DCC8E2D4-DC3C-4234-A67C-DD377BBA3E94}"/>
-    <hyperlink ref="B27" r:id="rId12" xr:uid="{8D855C20-947F-499D-8B52-6BF1D9620062}"/>
-    <hyperlink ref="B38" r:id="rId13" xr:uid="{A4E3DB5A-5CCC-4B2D-9A5E-749B4373BADA}"/>
-    <hyperlink ref="B39" r:id="rId14" xr:uid="{7680683B-33EC-44F6-8063-B43DA2D41E39}"/>
-    <hyperlink ref="B37" r:id="rId15" xr:uid="{96DC19D7-C4B8-416B-9B55-6A8C017941DD}"/>
-    <hyperlink ref="B40" r:id="rId16" xr:uid="{9D18645B-2FC6-4487-A0C4-BD012C1D143E}"/>
-    <hyperlink ref="B42" r:id="rId17" xr:uid="{115C602A-999F-4537-A5A2-CECB46A81412}"/>
-    <hyperlink ref="B45" r:id="rId18" xr:uid="{EC9CB3AB-C926-4112-AC58-BC6D33FB0F61}"/>
-    <hyperlink ref="B61" r:id="rId19" xr:uid="{8BA7A550-437D-481E-A5D8-1C7BAF78F053}"/>
-    <hyperlink ref="B60" r:id="rId20" xr:uid="{8BA5C361-05A3-4CEC-B20F-CAA241189B32}"/>
-    <hyperlink ref="B56" r:id="rId21" xr:uid="{C4B3EA22-2253-4650-9AE5-745B11A46802}"/>
-    <hyperlink ref="B75" r:id="rId22" xr:uid="{0C8AB159-278F-4BF7-8D2D-52BCF903E520}"/>
-    <hyperlink ref="B9" r:id="rId23" xr:uid="{D82E2B8D-E03D-4F6E-ACC7-5C7ED59CAA3B}"/>
-    <hyperlink ref="B11" r:id="rId24" xr:uid="{47F24924-3F95-4F51-9E60-60CDB73D765F}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B39" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B40" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B42" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B45" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
+    <hyperlink ref="B56" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B60" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B61" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B75" r:id="rId13" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B1" r:id="rId14" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
+    <hyperlink ref="B4" r:id="rId17" xr:uid="{F58FAD61-326B-43E8-B0F7-7AA437987BD2}"/>
+    <hyperlink ref="B5" r:id="rId18" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
+    <hyperlink ref="B9" r:id="rId19" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
+    <hyperlink ref="B16" r:id="rId21" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
+    <hyperlink ref="B17" r:id="rId22" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId25"/>

--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFA887-F31A-406A-BA68-BE77E7A968CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326188AE-E283-46A2-A548-3965299A9F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -38,22 +38,7 @@
     <t>Retirement planning</t>
   </si>
   <si>
-    <t>Inflation and Real Returns</t>
-  </si>
-  <si>
-    <t>Net Present Value</t>
-  </si>
-  <si>
-    <t>Internal Rate of Return</t>
-  </si>
-  <si>
     <t>Amortization</t>
-  </si>
-  <si>
-    <t>Amortization Schedule</t>
-  </si>
-  <si>
-    <t>Bond Price Yield</t>
   </si>
   <si>
     <t>Term structure of interest rates</t>
@@ -63,9 +48,6 @@
     <t>Credit spreads</t>
   </si>
   <si>
-    <t>Treasury Inflation Protected Securities</t>
-  </si>
-  <si>
     <t>Term structure of real interest rates</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t>Optimal Portfolios with short sales</t>
   </si>
   <si>
-    <t>Option Portfolios</t>
-  </si>
-  <si>
     <t>Put-call parity</t>
   </si>
   <si>
@@ -237,99 +216,124 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/bonds/treasuryyields.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
+    <t>Inflation and real returns</t>
+  </si>
+  <si>
+    <t>Net present value</t>
+  </si>
+  <si>
+    <t>Internal rate of return</t>
+  </si>
+  <si>
+    <t>Amortization schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bond prices and yields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasury inflation protected securities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/treasuryyields.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option portfolios</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,44 +730,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1"/>
     </row>
@@ -772,47 +776,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -821,64 +825,64 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,67 +890,67 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
     </row>
@@ -955,34 +959,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,15 +994,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
     </row>
@@ -1007,15 +1011,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1"/>
     </row>
@@ -1024,13 +1028,13 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1"/>
     </row>
@@ -1039,19 +1043,19 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1"/>
     </row>
@@ -1060,114 +1064,114 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D91436-9BB2-4039-ACFE-92562604956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E9201E-D729-4686-A25D-F284E8729BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration_risk.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/term_structure_movement.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1220,6 +1224,9 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>54</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1257,8 +1264,9 @@
     <hyperlink ref="B19" r:id="rId30" xr:uid="{90FE5F9D-4E38-4A38-ABF3-915B2CA096D3}"/>
     <hyperlink ref="B10" r:id="rId31" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
     <hyperlink ref="B73" r:id="rId32" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B75" r:id="rId33" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId34"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E9201E-D729-4686-A25D-F284E8729BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9114EA-7700-4754-8A94-164F5558626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -131,245 +131,290 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Optimal portfolios from user inputs</t>
+  </si>
+  <si>
+    <t>Risk-free and one risky asset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPM cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Alphas and mean-variance efficiency</t>
+  </si>
+  <si>
+    <t>Alphas and Sharpe ratios</t>
+  </si>
+  <si>
+    <t>Security Market Line for industry returns</t>
+  </si>
+  <si>
+    <t>Returns from sorts on characteristics</t>
+  </si>
+  <si>
+    <t>Returns from sorts on GHZ characteristics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fama-French cost of equity calculator</t>
+  </si>
+  <si>
+    <t>Fama-French model for industries</t>
+  </si>
+  <si>
+    <t>Performance evaluation tear sheet</t>
+  </si>
+  <si>
+    <t>Mutual Fund Alphas</t>
+  </si>
+  <si>
+    <t>Tax-advantaged savings vehicles</t>
+  </si>
+  <si>
+    <t>Asset location with taxes</t>
+  </si>
+  <si>
+    <t>Asset location with taxes: Comparison</t>
+  </si>
+  <si>
+    <t>Market option data</t>
+  </si>
+  <si>
+    <t>Binomial convergence</t>
+  </si>
+  <si>
+    <t>European and American option values</t>
+  </si>
+  <si>
+    <t>American call with a single cash dividend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American option exercise boundaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implied volatilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward curves</t>
+  </si>
+  <si>
+    <t>Term structure movements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle components</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inflation and real returns</t>
+  </si>
+  <si>
+    <t>Net present value</t>
+  </si>
+  <si>
+    <t>Internal rate of return</t>
+  </si>
+  <si>
+    <t>Amortization schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bond prices and yields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasury inflation protected securities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option portfolios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty_paths.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean and dirty bond prices and yields</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/tips.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/prices_yields.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/real_termstructure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/credit_spreads.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration_risk.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/term_structure_movement.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/market_data.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/put_call_parity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/black_scholes_formula.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/delta_hedge.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/correlations.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb_real.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/diversification.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_sb.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_short.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/riskfree.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Optimal portfolios of ETFs or stocks</t>
-  </si>
-  <si>
-    <t>Optimal portfolios from user inputs</t>
-  </si>
-  <si>
-    <t>Risk-free and one risky asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPM cost of equity calculator</t>
-  </si>
-  <si>
-    <t>Alphas and mean-variance efficiency</t>
-  </si>
-  <si>
-    <t>Alphas and Sharpe ratios</t>
-  </si>
-  <si>
-    <t>Security Market Line for industry returns</t>
-  </si>
-  <si>
-    <t>Returns from sorts on characteristics</t>
-  </si>
-  <si>
-    <t>Returns from sorts on GHZ characteristics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fama-French cost of equity calculator</t>
-  </si>
-  <si>
-    <t>Fama-French model for industries</t>
-  </si>
-  <si>
-    <t>Performance evaluation tear sheet</t>
-  </si>
-  <si>
-    <t>Mutual Fund Alphas</t>
-  </si>
-  <si>
-    <t>Tax-advantaged savings vehicles</t>
-  </si>
-  <si>
-    <t>Asset location with taxes</t>
-  </si>
-  <si>
-    <t>Asset location with taxes: Comparison</t>
-  </si>
-  <si>
-    <t>Market option data</t>
-  </si>
-  <si>
-    <t>Binomial convergence</t>
-  </si>
-  <si>
-    <t>European and American option values</t>
-  </si>
-  <si>
-    <t>American call with a single cash dividend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>American option exercise boundaries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implied volatilities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forward curves</t>
-  </si>
-  <si>
-    <t>Term structure movements</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Principle components</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inflation and real returns</t>
-  </si>
-  <si>
-    <t>Net present value</t>
-  </si>
-  <si>
-    <t>Internal rate of return</t>
-  </si>
-  <si>
-    <t>Amortization schedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bond prices and yields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treasury inflation protected securities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option portfolios</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty_paths.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clean and dirty bond prices and yields</t>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/tips.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/prices_yields.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/real_termstructure.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/credit_spreads.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration_risk.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/term_structure_movement.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_yahoo.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -756,477 +801,503 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.58203125" customWidth="1"/>
+    <col min="1" max="1" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1261,12 +1332,23 @@
     <hyperlink ref="B13" r:id="rId27" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
     <hyperlink ref="B8" r:id="rId28" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
     <hyperlink ref="B12" r:id="rId29" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
-    <hyperlink ref="B19" r:id="rId30" xr:uid="{90FE5F9D-4E38-4A38-ABF3-915B2CA096D3}"/>
-    <hyperlink ref="B10" r:id="rId31" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B73" r:id="rId32" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B75" r:id="rId33" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B10" r:id="rId30" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
+    <hyperlink ref="B73" r:id="rId31" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B75" r:id="rId32" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B54" r:id="rId33" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B56" r:id="rId34" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B57" r:id="rId35" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B61" r:id="rId36" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B21" r:id="rId37" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B18" r:id="rId38" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B19" r:id="rId39" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B25" r:id="rId40" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
+    <hyperlink ref="B32" r:id="rId41" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
+    <hyperlink ref="B31" r:id="rId42" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
+    <hyperlink ref="B27" r:id="rId43" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
+    <hyperlink ref="B33" r:id="rId44" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9114EA-7700-4754-8A94-164F5558626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C12F85-CE01-4ABF-BEDB-B40A47FF0C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -453,12 +453,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -474,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,6 +490,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -801,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,7 +870,7 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -876,7 +886,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -884,7 +894,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -892,7 +902,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -900,7 +910,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -908,7 +918,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -935,7 +945,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -943,7 +953,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -957,7 +967,7 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -984,7 +994,7 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1000,7 +1010,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1030,7 +1040,7 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1038,7 +1048,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1046,7 +1056,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1168,7 +1178,7 @@
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1184,7 +1194,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1192,7 +1202,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1200,8 +1210,11 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1234,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1269,7 +1282,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -1277,7 +1290,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -1293,7 +1306,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -1347,8 +1360,9 @@
     <hyperlink ref="B31" r:id="rId42" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
     <hyperlink ref="B27" r:id="rId43" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
     <hyperlink ref="B33" r:id="rId44" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId46"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C12F85-CE01-4ABF-BEDB-B40A47FF0C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C90AC-B4FD-4CF2-95C0-07462228433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -415,6 +415,38 @@
   </si>
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_yahoo.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/futures/forward_curve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/europeans_americans.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/calibrated_binomial_trees.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_trees.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_convergence.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/american_call.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_vehicles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_location_detail.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -811,16 +843,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="41.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -836,7 +868,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -844,7 +876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -852,7 +884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -860,16 +892,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -877,7 +909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -885,7 +917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,7 +925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -901,7 +933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -909,7 +941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -917,7 +949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -925,10 +957,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -936,7 +968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -944,7 +976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -952,7 +984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -960,13 +992,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -982,7 +1014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -990,10 +1022,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1033,13 +1065,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1079,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>106</v>
       </c>
@@ -1063,16 +1095,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1080,7 +1112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1096,7 +1128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1104,10 +1136,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1115,16 +1147,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1132,52 +1164,58 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B51" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>46</v>
       </c>
@@ -1185,7 +1223,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -1193,7 +1231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
@@ -1241,47 +1279,65 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B63" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B64" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B68" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -1297,7 +1353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -1305,7 +1361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -1361,8 +1417,17 @@
     <hyperlink ref="B27" r:id="rId43" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
     <hyperlink ref="B33" r:id="rId44" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
     <hyperlink ref="B58" r:id="rId45" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B70" r:id="rId46" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
+    <hyperlink ref="B67" r:id="rId47" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B64" r:id="rId48" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B63" r:id="rId49" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B65" r:id="rId50" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B68" r:id="rId51" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B50" r:id="rId52" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B51" r:id="rId53" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B52" r:id="rId54" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C90AC-B4FD-4CF2-95C0-07462228433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390C435-EB61-4E08-A29B-71FF7F6D6E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -112,9 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Real stock, bond, and bill returns</t>
-  </si>
-  <si>
     <t>Inflation and returns</t>
   </si>
   <si>
@@ -134,10 +131,6 @@
     <t>Optimal portfolios from user inputs</t>
   </si>
   <si>
-    <t>Risk-free and one risky asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CAPM cost of equity calculator</t>
   </si>
   <si>
@@ -448,6 +441,27 @@
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_location_detail.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retirement planning solution</t>
+  </si>
+  <si>
+    <t>Real returns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk-free and risky asset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/performance-evaluation/alphas_yahoo.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Black-Scholes formula</t>
+  </si>
+  <si>
+    <t>Market implied volatilities</t>
   </si>
 </sst>
 </file>
@@ -485,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,6 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -841,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -857,31 +878,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,180 +910,178 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
+      <c r="A14" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
+      <c r="A28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,362 +1091,385 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>104</v>
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1"/>
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
+      <c r="A53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>80</v>
+      <c r="A55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>97</v>
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>81</v>
+      <c r="B59" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>99</v>
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>111</v>
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>112</v>
+      <c r="A65" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>50</v>
+      <c r="A66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>48</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
-    <hyperlink ref="B36" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
-    <hyperlink ref="B37" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
-    <hyperlink ref="B38" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
-    <hyperlink ref="B39" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
-    <hyperlink ref="B41" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
-    <hyperlink ref="B44" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
-    <hyperlink ref="B55" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
-    <hyperlink ref="B59" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
-    <hyperlink ref="B60" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
-    <hyperlink ref="B74" r:id="rId13" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B39" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B40" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B42" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B45" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
+    <hyperlink ref="B56" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B61" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B63" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B77" r:id="rId13" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
     <hyperlink ref="B1" r:id="rId14" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
     <hyperlink ref="B2" r:id="rId15" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
     <hyperlink ref="B3" r:id="rId16" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
     <hyperlink ref="B4" r:id="rId17" xr:uid="{F58FAD61-326B-43E8-B0F7-7AA437987BD2}"/>
     <hyperlink ref="B5" r:id="rId18" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
-    <hyperlink ref="B9" r:id="rId19" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
-    <hyperlink ref="B11" r:id="rId20" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
-    <hyperlink ref="B16" r:id="rId21" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
-    <hyperlink ref="B17" r:id="rId22" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
-    <hyperlink ref="B22" r:id="rId23" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
-    <hyperlink ref="B72" r:id="rId26" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
-    <hyperlink ref="B13" r:id="rId27" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
-    <hyperlink ref="B8" r:id="rId28" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
-    <hyperlink ref="B12" r:id="rId29" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
-    <hyperlink ref="B10" r:id="rId30" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B73" r:id="rId31" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B75" r:id="rId32" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
-    <hyperlink ref="B54" r:id="rId33" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
-    <hyperlink ref="B56" r:id="rId34" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
-    <hyperlink ref="B57" r:id="rId35" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
-    <hyperlink ref="B61" r:id="rId36" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
-    <hyperlink ref="B21" r:id="rId37" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
-    <hyperlink ref="B18" r:id="rId38" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
-    <hyperlink ref="B19" r:id="rId39" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
-    <hyperlink ref="B25" r:id="rId40" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
-    <hyperlink ref="B32" r:id="rId41" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
-    <hyperlink ref="B31" r:id="rId42" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
-    <hyperlink ref="B27" r:id="rId43" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
-    <hyperlink ref="B33" r:id="rId44" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
-    <hyperlink ref="B70" r:id="rId46" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
-    <hyperlink ref="B67" r:id="rId47" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
-    <hyperlink ref="B64" r:id="rId48" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
-    <hyperlink ref="B63" r:id="rId49" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
-    <hyperlink ref="B68" r:id="rId51" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
-    <hyperlink ref="B50" r:id="rId52" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
-    <hyperlink ref="B51" r:id="rId53" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
-    <hyperlink ref="B52" r:id="rId54" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B10" r:id="rId19" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
+    <hyperlink ref="B12" r:id="rId20" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
+    <hyperlink ref="B17" r:id="rId21" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
+    <hyperlink ref="B18" r:id="rId22" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B15" r:id="rId24" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
+    <hyperlink ref="B75" r:id="rId25" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
+    <hyperlink ref="B9" r:id="rId27" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
+    <hyperlink ref="B13" r:id="rId28" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
+    <hyperlink ref="B11" r:id="rId29" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
+    <hyperlink ref="B76" r:id="rId30" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B78" r:id="rId31" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B55" r:id="rId32" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B57" r:id="rId33" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B58" r:id="rId34" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B64" r:id="rId35" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B22" r:id="rId36" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B19" r:id="rId37" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B21" r:id="rId38" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B26" r:id="rId39" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
+    <hyperlink ref="B33" r:id="rId40" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
+    <hyperlink ref="B32" r:id="rId41" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
+    <hyperlink ref="B28" r:id="rId42" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
+    <hyperlink ref="B34" r:id="rId43" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
+    <hyperlink ref="B59" r:id="rId44" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B73" r:id="rId45" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
+    <hyperlink ref="B70" r:id="rId46" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B67" r:id="rId47" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B66" r:id="rId48" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B68" r:id="rId49" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B71" r:id="rId50" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B51" r:id="rId51" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B52" r:id="rId52" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B53" r:id="rId53" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B43" r:id="rId54" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
+    <hyperlink ref="B31" r:id="rId55" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
+    <hyperlink ref="B49" r:id="rId56" xr:uid="{C370C561-57ED-4D3D-A758-2A469B290424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId57"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390C435-EB61-4E08-A29B-71FF7F6D6E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DEA66-EFBC-4369-A633-C86B642018CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DEA66-EFBC-4369-A633-C86B642018CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBB84F6-8B97-4991-BC56-FEFBC8CE877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -156,312 +156,337 @@
     <t>Fama-French model for industries</t>
   </si>
   <si>
+    <t>Mutual Fund Alphas</t>
+  </si>
+  <si>
+    <t>Tax-advantaged savings vehicles</t>
+  </si>
+  <si>
+    <t>Asset location with taxes</t>
+  </si>
+  <si>
+    <t>Asset location with taxes: Comparison</t>
+  </si>
+  <si>
+    <t>Market option data</t>
+  </si>
+  <si>
+    <t>Binomial convergence</t>
+  </si>
+  <si>
+    <t>European and American option values</t>
+  </si>
+  <si>
+    <t>American call with a single cash dividend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American option exercise boundaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implied volatilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward curves</t>
+  </si>
+  <si>
+    <t>Term structure movements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle components</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inflation and real returns</t>
+  </si>
+  <si>
+    <t>Net present value</t>
+  </si>
+  <si>
+    <t>Internal rate of return</t>
+  </si>
+  <si>
+    <t>Amortization schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bond prices and yields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasury inflation protected securities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option portfolios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty_paths.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean and dirty bond prices and yields</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/tips.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/prices_yields.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/real_termstructure.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/credit_spreads.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration_risk.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/term_structure_movement.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/market_data.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/put_call_parity.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/black_scholes_formula.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/delta_hedge.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/correlations.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb_real.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/diversification.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_sb.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_short.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/riskfree.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal portfolios of ETFs or stocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_yahoo.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/futures/forward_curve.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/europeans_americans.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/calibrated_binomial_trees.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_trees.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_convergence.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/american_call.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_vehicles.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_location_detail.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retirement planning solution</t>
+  </si>
+  <si>
+    <t>Real returns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk-free and risky asset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/performance-evaluation/alphas_yahoo.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Black-Scholes formula</t>
+  </si>
+  <si>
+    <t>Market implied volatilities</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/tree/main/options/general_black_scholes.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monte Carlo option valuation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two-stage valuation model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two-way sorts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Performance evaluation tear sheet</t>
-  </si>
-  <si>
-    <t>Mutual Fund Alphas</t>
-  </si>
-  <si>
-    <t>Tax-advantaged savings vehicles</t>
-  </si>
-  <si>
-    <t>Asset location with taxes</t>
-  </si>
-  <si>
-    <t>Asset location with taxes: Comparison</t>
-  </si>
-  <si>
-    <t>Market option data</t>
-  </si>
-  <si>
-    <t>Binomial convergence</t>
-  </si>
-  <si>
-    <t>European and American option values</t>
-  </si>
-  <si>
-    <t>American call with a single cash dividend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>American option exercise boundaries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implied volatilities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forward curves</t>
-  </si>
-  <si>
-    <t>Term structure movements</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Principle components</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inflation and real returns</t>
-  </si>
-  <si>
-    <t>Net present value</t>
-  </si>
-  <si>
-    <t>Internal rate of return</t>
-  </si>
-  <si>
-    <t>Amortization schedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bond prices and yields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treasury inflation protected securities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/retirement_planning.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/inflation.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/npv.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/irr.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/amortization.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/term_structure.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/compounded_returns.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/longrunrisk_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/retirement_planning_sim.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/two_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/three_assets.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/capm_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_mve.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/alphas_sharpes.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/capm/sml_industries.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/implied_volatilities.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/greeks.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/principal_components.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option portfolios</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty_paths.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/clean_dirty.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clean and dirty bond prices and yields</t>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/tips.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/prices_yields.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/real_termstructure.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/bonds/credit_spreads.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/duration_risk.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/term_structure_movement.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/market_data.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/put_call_parity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/black_scholes_formula.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/delta_hedge.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/correlations.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/sbb_real.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/diversification.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_sb.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_short.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/riskfree.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal portfolios of ETFs or stocks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_yahoo.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/futures/forward_curve.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/europeans_americans.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/calibrated_binomial_trees.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_trees.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/binomial_convergence.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/american_call.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_vehicles.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/taxes/tax_location_detail.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retirement planning solution</t>
-  </si>
-  <si>
-    <t>Real returns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Risk-free and risky asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/performance-evaluation/alphas_yahoo.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>General Black-Scholes formula</t>
-  </si>
-  <si>
-    <t>Market implied volatilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/borrowing_saving/two_stage_valuation_model.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/monte_carlo.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,7 +565,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -878,237 +896,237 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>91</v>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>70</v>
+      <c r="A29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>102</v>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>101</v>
@@ -1116,360 +1134,387 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
+      <c r="A54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>96</v>
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>79</v>
+      <c r="B61" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>108</v>
+      <c r="A67" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>48</v>
+      <c r="A69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>111</v>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>50</v>
+      <c r="A73" t="s">
+        <v>46</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>93</v>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
-    <hyperlink ref="B37" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
-    <hyperlink ref="B39" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
-    <hyperlink ref="B40" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
-    <hyperlink ref="B42" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
-    <hyperlink ref="B45" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
-    <hyperlink ref="B56" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
-    <hyperlink ref="B61" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
-    <hyperlink ref="B63" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
-    <hyperlink ref="B77" r:id="rId13" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
+    <hyperlink ref="B30" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B40" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B41" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B43" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B47" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
+    <hyperlink ref="B58" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B63" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B65" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B80" r:id="rId13" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
     <hyperlink ref="B1" r:id="rId14" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
     <hyperlink ref="B2" r:id="rId15" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
     <hyperlink ref="B3" r:id="rId16" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
     <hyperlink ref="B4" r:id="rId17" xr:uid="{F58FAD61-326B-43E8-B0F7-7AA437987BD2}"/>
-    <hyperlink ref="B5" r:id="rId18" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
-    <hyperlink ref="B10" r:id="rId19" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
-    <hyperlink ref="B12" r:id="rId20" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
-    <hyperlink ref="B17" r:id="rId21" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
-    <hyperlink ref="B18" r:id="rId22" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
-    <hyperlink ref="B15" r:id="rId24" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
-    <hyperlink ref="B75" r:id="rId25" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
-    <hyperlink ref="B14" r:id="rId26" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
-    <hyperlink ref="B9" r:id="rId27" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
-    <hyperlink ref="B13" r:id="rId28" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
-    <hyperlink ref="B11" r:id="rId29" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B76" r:id="rId30" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B78" r:id="rId31" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
-    <hyperlink ref="B55" r:id="rId32" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
-    <hyperlink ref="B57" r:id="rId33" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
-    <hyperlink ref="B58" r:id="rId34" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
-    <hyperlink ref="B64" r:id="rId35" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
-    <hyperlink ref="B22" r:id="rId36" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
-    <hyperlink ref="B19" r:id="rId37" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
-    <hyperlink ref="B21" r:id="rId38" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
-    <hyperlink ref="B26" r:id="rId39" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
-    <hyperlink ref="B33" r:id="rId40" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
-    <hyperlink ref="B32" r:id="rId41" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
-    <hyperlink ref="B28" r:id="rId42" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
-    <hyperlink ref="B34" r:id="rId43" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
-    <hyperlink ref="B59" r:id="rId44" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
-    <hyperlink ref="B73" r:id="rId45" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
-    <hyperlink ref="B70" r:id="rId46" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
-    <hyperlink ref="B67" r:id="rId47" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
-    <hyperlink ref="B66" r:id="rId48" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
-    <hyperlink ref="B68" r:id="rId49" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
-    <hyperlink ref="B71" r:id="rId50" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
-    <hyperlink ref="B51" r:id="rId51" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
-    <hyperlink ref="B52" r:id="rId52" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
-    <hyperlink ref="B53" r:id="rId53" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
-    <hyperlink ref="B43" r:id="rId54" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
-    <hyperlink ref="B31" r:id="rId55" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
-    <hyperlink ref="B49" r:id="rId56" xr:uid="{C370C561-57ED-4D3D-A758-2A469B290424}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
+    <hyperlink ref="B13" r:id="rId20" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
+    <hyperlink ref="B18" r:id="rId21" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
+    <hyperlink ref="B19" r:id="rId22" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
+    <hyperlink ref="B78" r:id="rId25" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
+    <hyperlink ref="B15" r:id="rId26" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
+    <hyperlink ref="B10" r:id="rId27" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
+    <hyperlink ref="B14" r:id="rId28" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
+    <hyperlink ref="B12" r:id="rId29" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
+    <hyperlink ref="B79" r:id="rId30" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B81" r:id="rId31" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B57" r:id="rId32" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B59" r:id="rId33" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B60" r:id="rId34" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B66" r:id="rId35" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B23" r:id="rId36" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B22" r:id="rId38" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B27" r:id="rId39" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
+    <hyperlink ref="B34" r:id="rId40" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
+    <hyperlink ref="B33" r:id="rId41" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
+    <hyperlink ref="B29" r:id="rId42" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
+    <hyperlink ref="B35" r:id="rId43" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
+    <hyperlink ref="B61" r:id="rId44" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B76" r:id="rId45" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
+    <hyperlink ref="B72" r:id="rId46" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B69" r:id="rId47" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B68" r:id="rId48" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B70" r:id="rId49" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B73" r:id="rId50" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B45" r:id="rId54" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
+    <hyperlink ref="B32" r:id="rId55" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
+    <hyperlink ref="B51" r:id="rId56" xr:uid="{C370C561-57ED-4D3D-A758-2A469B290424}"/>
+    <hyperlink ref="B74" r:id="rId57" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
+    <hyperlink ref="B5" r:id="rId58" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId60"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6755D-8767-4DE4-A7A4-364712E2BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F326F-B37F-40FB-AD9E-1B14424A1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -90,10 +90,6 @@
     <t>Best and worst periods</t>
   </si>
   <si>
-    <t>Stock, bond, and bill returns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Inflation and returns</t>
   </si>
   <si>
@@ -522,6 +518,30 @@
   </si>
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/performance-evaluation/funds.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/performance-evaluation/funds.ipynb</t>
+  </si>
+  <si>
+    <t>Returns at different frequencies</t>
+  </si>
+  <si>
+    <t>Time varying volatilities</t>
+  </si>
+  <si>
+    <t>Stock, bond, bill, and gold returns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arithmetic and geometric averages as forecasts</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/frequencies.ipynb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/spot_forward.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,31 +952,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,27 +984,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -992,10 +1012,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,15 +1031,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,15 +1047,15 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,488 +1082,511 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>77</v>
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>109</v>
+      <c r="A44" t="s">
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="4"/>
+      <c r="A47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>132</v>
+      <c r="A48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>133</v>
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>31</v>
+      <c r="A57" t="s">
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
+      <c r="A59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>65</v>
+      <c r="A61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>83</v>
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>66</v>
+      <c r="A66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="2"/>
+      <c r="A67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>67</v>
+      <c r="A68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>84</v>
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>126</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>96</v>
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>106</v>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>37</v>
+      <c r="A79" t="s">
+        <v>33</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="4"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
-    <hyperlink ref="B30" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
-    <hyperlink ref="B38" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
-    <hyperlink ref="B40" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
-    <hyperlink ref="B41" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
-    <hyperlink ref="B43" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
-    <hyperlink ref="B50" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
-    <hyperlink ref="B61" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
-    <hyperlink ref="B66" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
-    <hyperlink ref="B68" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
+    <hyperlink ref="B33" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B44" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B46" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B53" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
+    <hyperlink ref="B64" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B69" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B71" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
     <hyperlink ref="B1" r:id="rId13" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
     <hyperlink ref="B8" r:id="rId14" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
     <hyperlink ref="B2" r:id="rId15" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
@@ -1553,49 +1596,51 @@
     <hyperlink ref="B13" r:id="rId19" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
     <hyperlink ref="B18" r:id="rId20" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
     <hyperlink ref="B19" r:id="rId21" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
     <hyperlink ref="B16" r:id="rId23" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
-    <hyperlink ref="B81" r:id="rId24" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
+    <hyperlink ref="B84" r:id="rId24" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
     <hyperlink ref="B15" r:id="rId25" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
     <hyperlink ref="B10" r:id="rId26" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
     <hyperlink ref="B14" r:id="rId27" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
     <hyperlink ref="B12" r:id="rId28" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B82" r:id="rId29" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B86" r:id="rId30" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
-    <hyperlink ref="B60" r:id="rId31" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
-    <hyperlink ref="B63" r:id="rId33" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
-    <hyperlink ref="B69" r:id="rId34" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
-    <hyperlink ref="B23" r:id="rId35" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
-    <hyperlink ref="B20" r:id="rId36" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
-    <hyperlink ref="B22" r:id="rId37" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
-    <hyperlink ref="B27" r:id="rId38" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
-    <hyperlink ref="B34" r:id="rId39" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
-    <hyperlink ref="B33" r:id="rId40" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
-    <hyperlink ref="B29" r:id="rId41" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
-    <hyperlink ref="B35" r:id="rId42" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
-    <hyperlink ref="B64" r:id="rId43" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
-    <hyperlink ref="B79" r:id="rId44" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
-    <hyperlink ref="B75" r:id="rId45" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
-    <hyperlink ref="B72" r:id="rId46" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
-    <hyperlink ref="B71" r:id="rId47" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
-    <hyperlink ref="B73" r:id="rId48" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
-    <hyperlink ref="B76" r:id="rId49" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
-    <hyperlink ref="B56" r:id="rId50" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
-    <hyperlink ref="B57" r:id="rId51" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
-    <hyperlink ref="B58" r:id="rId52" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
-    <hyperlink ref="B32" r:id="rId53" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
-    <hyperlink ref="B77" r:id="rId54" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
+    <hyperlink ref="B85" r:id="rId29" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B89" r:id="rId30" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B63" r:id="rId31" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B65" r:id="rId32" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B66" r:id="rId33" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B72" r:id="rId34" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B25" r:id="rId35" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B22" r:id="rId36" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B24" r:id="rId37" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B30" r:id="rId38" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
+    <hyperlink ref="B37" r:id="rId39" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
+    <hyperlink ref="B36" r:id="rId40" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
+    <hyperlink ref="B32" r:id="rId41" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
+    <hyperlink ref="B38" r:id="rId42" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
+    <hyperlink ref="B67" r:id="rId43" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B82" r:id="rId44" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
+    <hyperlink ref="B78" r:id="rId45" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B75" r:id="rId46" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B74" r:id="rId47" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B76" r:id="rId48" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B79" r:id="rId49" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B59" r:id="rId50" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B35" r:id="rId53" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
+    <hyperlink ref="B80" r:id="rId54" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
     <hyperlink ref="B4" r:id="rId55" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
-    <hyperlink ref="B46" r:id="rId57" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
-    <hyperlink ref="B44" r:id="rId58" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
-    <hyperlink ref="B45" r:id="rId59" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
-    <hyperlink ref="B87" r:id="rId60" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
-    <hyperlink ref="B48" r:id="rId61" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
-    <hyperlink ref="B53" r:id="rId62" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
+    <hyperlink ref="B68" r:id="rId56" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
+    <hyperlink ref="B49" r:id="rId57" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
+    <hyperlink ref="B47" r:id="rId58" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
+    <hyperlink ref="B48" r:id="rId59" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
+    <hyperlink ref="B90" r:id="rId60" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B51" r:id="rId61" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
+    <hyperlink ref="B56" r:id="rId62" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
+    <hyperlink ref="B20" r:id="rId63" xr:uid="{67A7E17D-3218-4929-A29C-C13ECBC7AEC7}"/>
+    <hyperlink ref="B86" r:id="rId64" xr:uid="{6DC43137-1F04-41B2-A741-6E03F9F47841}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId65"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingyun Huang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailiao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F326F-B37F-40FB-AD9E-1B14424A1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2B9D2F-2128-D44C-ADFB-49B6CB04BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -93,12 +93,6 @@
     <t>Inflation and returns</t>
   </si>
   <si>
-    <t>Correlations of returns and inflation</t>
-  </si>
-  <si>
-    <t>Long run risk</t>
-  </si>
-  <si>
     <t>Retirement planning simulation</t>
   </si>
   <si>
@@ -402,10 +396,6 @@
     <t>Retirement planning solution</t>
   </si>
   <si>
-    <t>Real returns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Risk-free and risky asset</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -543,6 +533,42 @@
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/spot_forward.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometric average returns</t>
+  </si>
+  <si>
+    <t>Continuosly compounded returns</t>
+  </si>
+  <si>
+    <t>Simulating returns</t>
+  </si>
+  <si>
+    <t>Skewness of long-run returns</t>
+  </si>
+  <si>
+    <t>Real stock, bond, and gold returns</t>
+  </si>
+  <si>
+    <t>simulating returns</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/means.ipynb</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/continuous_compounding.ipynb</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/geometric.ipynb</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/simulation.ipynb</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/volatilities.ipynb</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/long_run_risk.ipynb</t>
   </si>
 </sst>
 </file>
@@ -553,7 +579,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -561,26 +587,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +616,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,10 +659,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,7 +680,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -936,15 +976,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,31 +992,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -984,27 +1024,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,10 +1052,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1023,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1031,15 +1071,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,15 +1087,15 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,519 +1114,550 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>139</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>140</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>137</v>
+      <c r="A27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
+      <c r="A29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>86</v>
+      <c r="A30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>108</v>
+      <c r="A47" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>132</v>
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>30</v>
+      <c r="A60" t="s">
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
+      <c r="A62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>64</v>
+      <c r="A64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>82</v>
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>65</v>
+      <c r="A69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="2"/>
+      <c r="A70" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>66</v>
+      <c r="A71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>83</v>
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>95</v>
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>96</v>
+      <c r="A76" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>34</v>
+      <c r="A77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>105</v>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>36</v>
+      <c r="A82" t="s">
+        <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>128</v>
-      </c>
-      <c r="B87" s="4"/>
+      <c r="A87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="4"/>
+      <c r="A88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
+      </c>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
-    <hyperlink ref="B33" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
-    <hyperlink ref="B41" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
-    <hyperlink ref="B43" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
-    <hyperlink ref="B44" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
-    <hyperlink ref="B46" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
-    <hyperlink ref="B53" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
-    <hyperlink ref="B64" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
-    <hyperlink ref="B69" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
-    <hyperlink ref="B71" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
+    <hyperlink ref="B44" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B45" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B46" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B47" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B49" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B56" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
+    <hyperlink ref="B67" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B72" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B74" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
     <hyperlink ref="B1" r:id="rId13" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
     <hyperlink ref="B8" r:id="rId14" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
     <hyperlink ref="B2" r:id="rId15" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
@@ -1595,52 +1666,58 @@
     <hyperlink ref="B11" r:id="rId18" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
     <hyperlink ref="B13" r:id="rId19" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
     <hyperlink ref="B18" r:id="rId20" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
-    <hyperlink ref="B19" r:id="rId21" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
     <hyperlink ref="B16" r:id="rId23" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
-    <hyperlink ref="B84" r:id="rId24" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
+    <hyperlink ref="B87" r:id="rId24" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
     <hyperlink ref="B15" r:id="rId25" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
     <hyperlink ref="B10" r:id="rId26" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
     <hyperlink ref="B14" r:id="rId27" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
     <hyperlink ref="B12" r:id="rId28" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B85" r:id="rId29" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B89" r:id="rId30" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
-    <hyperlink ref="B63" r:id="rId31" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
-    <hyperlink ref="B65" r:id="rId32" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
-    <hyperlink ref="B66" r:id="rId33" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
-    <hyperlink ref="B72" r:id="rId34" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
-    <hyperlink ref="B25" r:id="rId35" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
-    <hyperlink ref="B22" r:id="rId36" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
-    <hyperlink ref="B24" r:id="rId37" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
-    <hyperlink ref="B30" r:id="rId38" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
-    <hyperlink ref="B37" r:id="rId39" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
-    <hyperlink ref="B36" r:id="rId40" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
-    <hyperlink ref="B32" r:id="rId41" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
-    <hyperlink ref="B38" r:id="rId42" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
-    <hyperlink ref="B67" r:id="rId43" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
-    <hyperlink ref="B82" r:id="rId44" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
-    <hyperlink ref="B78" r:id="rId45" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
-    <hyperlink ref="B75" r:id="rId46" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
-    <hyperlink ref="B74" r:id="rId47" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
-    <hyperlink ref="B76" r:id="rId48" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
-    <hyperlink ref="B79" r:id="rId49" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
-    <hyperlink ref="B59" r:id="rId50" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
-    <hyperlink ref="B35" r:id="rId53" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
-    <hyperlink ref="B80" r:id="rId54" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
-    <hyperlink ref="B4" r:id="rId55" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
-    <hyperlink ref="B68" r:id="rId56" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
-    <hyperlink ref="B49" r:id="rId57" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
-    <hyperlink ref="B47" r:id="rId58" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
-    <hyperlink ref="B48" r:id="rId59" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
-    <hyperlink ref="B90" r:id="rId60" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
-    <hyperlink ref="B51" r:id="rId61" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
-    <hyperlink ref="B56" r:id="rId62" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
-    <hyperlink ref="B20" r:id="rId63" xr:uid="{67A7E17D-3218-4929-A29C-C13ECBC7AEC7}"/>
-    <hyperlink ref="B86" r:id="rId64" xr:uid="{6DC43137-1F04-41B2-A741-6E03F9F47841}"/>
+    <hyperlink ref="B88" r:id="rId29" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B92" r:id="rId30" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B66" r:id="rId31" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B68" r:id="rId32" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B69" r:id="rId33" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B75" r:id="rId34" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B28" r:id="rId35" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B29" r:id="rId36" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B33" r:id="rId37" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
+    <hyperlink ref="B39" r:id="rId39" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
+    <hyperlink ref="B35" r:id="rId40" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
+    <hyperlink ref="B70" r:id="rId42" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B85" r:id="rId43" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
+    <hyperlink ref="B81" r:id="rId44" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B78" r:id="rId45" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B77" r:id="rId46" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B79" r:id="rId47" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B82" r:id="rId48" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B63" r:id="rId50" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B64" r:id="rId51" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B38" r:id="rId52" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
+    <hyperlink ref="B83" r:id="rId53" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
+    <hyperlink ref="B4" r:id="rId54" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
+    <hyperlink ref="B71" r:id="rId55" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
+    <hyperlink ref="B52" r:id="rId56" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
+    <hyperlink ref="B50" r:id="rId57" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
+    <hyperlink ref="B51" r:id="rId58" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
+    <hyperlink ref="B93" r:id="rId59" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B54" r:id="rId60" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
+    <hyperlink ref="B59" r:id="rId61" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
+    <hyperlink ref="B21" r:id="rId62" xr:uid="{67A7E17D-3218-4929-A29C-C13ECBC7AEC7}"/>
+    <hyperlink ref="B89" r:id="rId63" xr:uid="{6DC43137-1F04-41B2-A741-6E03F9F47841}"/>
+    <hyperlink ref="B27" r:id="rId64" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B26" r:id="rId65" xr:uid="{2F947491-C050-4E4D-AC6D-EE348089ECA7}"/>
+    <hyperlink ref="B23" r:id="rId66" xr:uid="{A3EFBC09-FFE6-8D42-B883-F259F0357BD1}"/>
+    <hyperlink ref="B19" r:id="rId67" xr:uid="{BEB02328-36C6-EF4B-BD7C-03AC16620C0A}"/>
+    <hyperlink ref="B24" r:id="rId68" xr:uid="{E728BDF6-5147-1C4A-A696-DF6A5FD73887}"/>
+    <hyperlink ref="B22" r:id="rId69" xr:uid="{0E12AEB0-15F6-F948-B9E1-690F71C219A9}"/>
+    <hyperlink ref="B25" r:id="rId70" xr:uid="{235B1F81-EC67-9B4F-9C11-C88F2AAEDE73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId71"/>
 </worksheet>
 </file>
--- a/linksPython.xlsx
+++ b/linksPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailiao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2B9D2F-2128-D44C-ADFB-49B6CB04BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FAE67-99A8-5F4E-9B93-686CA1F2AC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1E59D818-A824-4FE2-B77B-E648B498C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>Retirement planning</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Optimal portfolios</t>
   </si>
   <si>
-    <t>Frontier with short sales</t>
-  </si>
-  <si>
-    <t>Optimal Portfolios with short sales</t>
-  </si>
-  <si>
     <t>Black-Scholes formula</t>
   </si>
   <si>
@@ -96,13 +90,6 @@
     <t>Retirement planning simulation</t>
   </si>
   <si>
-    <t>Optimal portfolios of stocks and bonds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal portfolios from user inputs</t>
-  </si>
-  <si>
     <t>CAPM cost of equity calculator</t>
   </si>
   <si>
@@ -246,10 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fama_french/ff_costequity.ipynb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/options/option_portfolios.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,10 +336,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Optimal portfolios of ETFs or stocks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/portfolios/optimal_yahoo.ipynb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,13 +548,34 @@
   </si>
   <si>
     <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/risk/long_run_risk.ipynb</t>
+  </si>
+  <si>
+    <t>Correlations of stocks or funds</t>
+  </si>
+  <si>
+    <t>asset_classes.py</t>
+  </si>
+  <si>
+    <t>Short sales, frontiers, and GMV portfolios</t>
+  </si>
+  <si>
+    <t>Optimal portfolios of stocks, bonds, and gold</t>
+  </si>
+  <si>
+    <t>Optimal portfolios of stocks or funds</t>
+  </si>
+  <si>
+    <t>Adding risk-free asset to portfolios of two risky assets</t>
+  </si>
+  <si>
+    <t>https://githubtocolab.com/bbcx-investments/notebooks/blob/main/fixed_income/rate_tree.ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +605,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -645,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -661,6 +672,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3BA6-96E4-44CA-A5AA-7B2C5BB4791C}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,31 +1005,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,698 +1037,683 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
+      <c r="A11" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>18</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
+      <c r="B44" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+      <c r="A48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>110</v>
+      <c r="A52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="4"/>
+      <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>130</v>
+      <c r="A60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
+      <c r="A61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>97</v>
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>107</v>
+      <c r="A71" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>63</v>
+      <c r="A72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>81</v>
+      <c r="A74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>122</v>
+      <c r="A76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>93</v>
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>32</v>
+      <c r="A80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>95</v>
+      <c r="A82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>102</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>90</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{88074457-368F-4D2E-8783-A0D1FE324974}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{750AACCD-23B7-4A18-B871-D94AFDAF024A}"/>
-    <hyperlink ref="B44" r:id="rId4" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
-    <hyperlink ref="B45" r:id="rId5" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
-    <hyperlink ref="B46" r:id="rId6" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
-    <hyperlink ref="B47" r:id="rId7" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
-    <hyperlink ref="B49" r:id="rId8" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
-    <hyperlink ref="B56" r:id="rId9" xr:uid="{2D397079-A0F6-4F5D-ADD4-635DFE01CB2F}"/>
-    <hyperlink ref="B67" r:id="rId10" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
-    <hyperlink ref="B72" r:id="rId11" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
-    <hyperlink ref="B74" r:id="rId12" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
-    <hyperlink ref="B1" r:id="rId13" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
-    <hyperlink ref="B8" r:id="rId14" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
-    <hyperlink ref="B2" r:id="rId15" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{F58FAD61-326B-43E8-B0F7-7AA437987BD2}"/>
-    <hyperlink ref="B5" r:id="rId17" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
-    <hyperlink ref="B11" r:id="rId18" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
-    <hyperlink ref="B13" r:id="rId19" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{73E00C6D-7352-4C60-B749-F0CFC8887232}"/>
-    <hyperlink ref="B20" r:id="rId21" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
-    <hyperlink ref="B30" r:id="rId22" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
-    <hyperlink ref="B87" r:id="rId24" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
-    <hyperlink ref="B10" r:id="rId26" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
-    <hyperlink ref="B14" r:id="rId27" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
-    <hyperlink ref="B12" r:id="rId28" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
-    <hyperlink ref="B88" r:id="rId29" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
-    <hyperlink ref="B92" r:id="rId30" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
-    <hyperlink ref="B66" r:id="rId31" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
-    <hyperlink ref="B68" r:id="rId32" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
-    <hyperlink ref="B69" r:id="rId33" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
-    <hyperlink ref="B75" r:id="rId34" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
-    <hyperlink ref="B28" r:id="rId35" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
-    <hyperlink ref="B29" r:id="rId36" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
-    <hyperlink ref="B33" r:id="rId37" xr:uid="{C032A21B-3528-4870-82C3-5439FA7FE1F2}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{812242B1-B31D-4DBC-B478-A2A70568B866}"/>
-    <hyperlink ref="B39" r:id="rId39" xr:uid="{80B75081-70CD-460B-B6AB-BEA3DA8357CA}"/>
-    <hyperlink ref="B35" r:id="rId40" xr:uid="{ED351EC8-4121-4BA4-AAD5-5935D8944499}"/>
-    <hyperlink ref="B41" r:id="rId41" xr:uid="{96302540-E208-44B3-9679-34D884543116}"/>
-    <hyperlink ref="B70" r:id="rId42" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
-    <hyperlink ref="B85" r:id="rId43" xr:uid="{563B1335-3339-40A9-8255-59E35DBCBA25}"/>
-    <hyperlink ref="B81" r:id="rId44" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
-    <hyperlink ref="B78" r:id="rId45" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
-    <hyperlink ref="B77" r:id="rId46" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
-    <hyperlink ref="B79" r:id="rId47" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
-    <hyperlink ref="B82" r:id="rId48" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
-    <hyperlink ref="B63" r:id="rId50" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
-    <hyperlink ref="B38" r:id="rId52" xr:uid="{1FB40B16-1D8C-45AF-B408-60E172390219}"/>
-    <hyperlink ref="B83" r:id="rId53" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
-    <hyperlink ref="B4" r:id="rId54" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
-    <hyperlink ref="B52" r:id="rId56" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
-    <hyperlink ref="B50" r:id="rId57" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
-    <hyperlink ref="B51" r:id="rId58" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
-    <hyperlink ref="B93" r:id="rId59" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
-    <hyperlink ref="B54" r:id="rId60" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
-    <hyperlink ref="B59" r:id="rId61" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
-    <hyperlink ref="B21" r:id="rId62" xr:uid="{67A7E17D-3218-4929-A29C-C13ECBC7AEC7}"/>
-    <hyperlink ref="B89" r:id="rId63" xr:uid="{6DC43137-1F04-41B2-A741-6E03F9F47841}"/>
-    <hyperlink ref="B27" r:id="rId64" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
-    <hyperlink ref="B26" r:id="rId65" xr:uid="{2F947491-C050-4E4D-AC6D-EE348089ECA7}"/>
-    <hyperlink ref="B23" r:id="rId66" xr:uid="{A3EFBC09-FFE6-8D42-B883-F259F0357BD1}"/>
-    <hyperlink ref="B19" r:id="rId67" xr:uid="{BEB02328-36C6-EF4B-BD7C-03AC16620C0A}"/>
-    <hyperlink ref="B24" r:id="rId68" xr:uid="{E728BDF6-5147-1C4A-A696-DF6A5FD73887}"/>
-    <hyperlink ref="B22" r:id="rId69" xr:uid="{0E12AEB0-15F6-F948-B9E1-690F71C219A9}"/>
-    <hyperlink ref="B25" r:id="rId70" xr:uid="{235B1F81-EC67-9B4F-9C11-C88F2AAEDE73}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{481924B9-4FCB-49D1-8C7F-8DADA9745870}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{97E76F85-9A91-401A-9E52-FF133CF088C9}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{EDC3F477-E854-4BA1-BF94-03AE11261C24}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{589D925C-EB32-4159-A767-F095FEF502A1}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{596FB750-164E-4A92-A75B-893174B6F9A4}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{FDF02FC9-4D37-4F60-9EE1-840F36FA1C3E}"/>
+    <hyperlink ref="B58" r:id="rId7" xr:uid="{81B10211-C286-435C-BFD5-7A3D1D40BDCF}"/>
+    <hyperlink ref="B63" r:id="rId8" xr:uid="{0CBC9C76-9C65-413B-8A46-975A2AB9FAB1}"/>
+    <hyperlink ref="B65" r:id="rId9" xr:uid="{DAD694D7-0FBE-45E6-9EA8-4957B4DC5960}"/>
+    <hyperlink ref="B1" r:id="rId10" xr:uid="{C1EBE086-F365-451F-B104-CFADC0E9EFC2}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{E5011B62-D3EB-4B34-9663-51C29695CC97}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{61DB241B-6A29-4607-AFCC-E5B7EC216D61}"/>
+    <hyperlink ref="B3" r:id="rId13" xr:uid="{F58FAD61-326B-43E8-B0F7-7AA437987BD2}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{B044AAF2-AB1C-4F68-9CA3-16D4F5BDA7B7}"/>
+    <hyperlink ref="B77" r:id="rId15" xr:uid="{81BACCA5-0ACB-483E-AED7-A287DC5677BF}"/>
+    <hyperlink ref="B79" r:id="rId16" xr:uid="{FB163E95-A46D-4A35-8266-A92BC544EC89}"/>
+    <hyperlink ref="B14" r:id="rId17" xr:uid="{63BB4A28-3D23-4DA5-9148-22126E77CA01}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{0DCE5853-31FE-457A-AB32-88CCC1276104}"/>
+    <hyperlink ref="B82" r:id="rId19" xr:uid="{2D441617-5F00-4563-9994-B30AA0307208}"/>
+    <hyperlink ref="B83" r:id="rId20" xr:uid="{585B31E0-1BFD-47DD-BEEA-5FFB1A802ACE}"/>
+    <hyperlink ref="B81" r:id="rId21" xr:uid="{9C890BEC-8144-4951-A040-85A6436B51A5}"/>
+    <hyperlink ref="B76" r:id="rId22" xr:uid="{53E1FA70-4B49-4771-B11A-61D7A570FFF1}"/>
+    <hyperlink ref="B80" r:id="rId23" xr:uid="{55442A35-22DF-49DA-83AD-51028FAF1B1F}"/>
+    <hyperlink ref="B78" r:id="rId24" xr:uid="{64BF5E28-9AAE-489E-92AD-2F71879A0AB6}"/>
+    <hyperlink ref="B84" r:id="rId25" xr:uid="{9BB64415-5637-4842-AAC3-7C0884310CB9}"/>
+    <hyperlink ref="B88" r:id="rId26" xr:uid="{4A07E515-E14C-452B-8B12-345E02B6D1BF}"/>
+    <hyperlink ref="B57" r:id="rId27" xr:uid="{AEE1C692-E637-4411-BA44-8566B1C09026}"/>
+    <hyperlink ref="B59" r:id="rId28" xr:uid="{5F3C520D-0C9A-4947-8955-49CE5EC39049}"/>
+    <hyperlink ref="B60" r:id="rId29" xr:uid="{B0C4CE99-95D4-42FF-92E3-BB67FD339473}"/>
+    <hyperlink ref="B66" r:id="rId30" xr:uid="{13F8B409-76F2-4587-B10D-0F52FABF4D92}"/>
+    <hyperlink ref="B21" r:id="rId31" xr:uid="{F9C24617-A004-41A9-96C6-86BBCA5BF932}"/>
+    <hyperlink ref="B22" r:id="rId32" xr:uid="{04BC8E7A-4BA3-4274-8C58-10EF3E498A51}"/>
+    <hyperlink ref="B61" r:id="rId33" xr:uid="{4C8A50E2-5BC5-489F-B4E8-19C730558686}"/>
+    <hyperlink ref="B72" r:id="rId34" xr:uid="{1400F136-CB5D-4696-B6A3-C3563C82DAE4}"/>
+    <hyperlink ref="B69" r:id="rId35" xr:uid="{290159C6-146C-499D-8688-187877EA95AA}"/>
+    <hyperlink ref="B68" r:id="rId36" xr:uid="{8163AA81-E4C8-4CD9-8FEE-CC5C2B143F9D}"/>
+    <hyperlink ref="B70" r:id="rId37" xr:uid="{F8EAD1F1-4035-4FF1-AD56-AA4CDFC4B0AA}"/>
+    <hyperlink ref="B73" r:id="rId38" xr:uid="{4BA514B0-D830-41B7-B82B-932748A92CCC}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{F40C21C2-F32F-4522-854C-0FDE0F67E0E6}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{C949AD43-766C-4A3E-8400-95DBE3790664}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{D47408B9-389B-4534-85E9-FA78D0738F39}"/>
+    <hyperlink ref="B74" r:id="rId42" xr:uid="{B9B965DB-36BB-4FF2-9634-ECB9B34D0CFD}"/>
+    <hyperlink ref="B4" r:id="rId43" xr:uid="{9D8507CD-C1B8-4435-8620-E379AA73D825}"/>
+    <hyperlink ref="B62" r:id="rId44" xr:uid="{F3E9A5A5-28DD-4D43-94BD-1D1FAAEE565F}"/>
+    <hyperlink ref="B44" r:id="rId45" xr:uid="{30CA4CD6-20C6-4E2A-9CE1-15246B70F552}"/>
+    <hyperlink ref="B42" r:id="rId46" xr:uid="{8B887416-5F84-477F-993A-29948BA5C4B7}"/>
+    <hyperlink ref="B43" r:id="rId47" display="https://githubtocolab.com/bbcx-investments/notebooks/blob/main/factor_investing/quintiles.ipynb" xr:uid="{D9365FC9-9636-494D-8B76-0C9C3FFF9B0F}"/>
+    <hyperlink ref="B89" r:id="rId48" xr:uid="{00FBC52A-2695-4B3D-8A0F-11FB5C4346CC}"/>
+    <hyperlink ref="B46" r:id="rId49" xr:uid="{23079BBB-ABFE-451F-AAAC-E3F717AFBDB1}"/>
+    <hyperlink ref="B48" r:id="rId50" xr:uid="{DD2F97B1-3BE5-4687-8283-ACCC57DB6ED5}"/>
+    <hyperlink ref="B85" r:id="rId51" xr:uid="{6DC43137-1F04-41B2-A741-6E03F9F47841}"/>
+    <hyperlink ref="B20" r:id="rId52" xr:uid="{FD33BFA4-0B0C-4287-9167-AD01B68AE7C5}"/>
+    <hyperlink ref="B19" r:id="rId53" xr:uid="{2F947491-C050-4E4D-AC6D-EE348089ECA7}"/>
+    <hyperlink ref="B15" r:id="rId54" xr:uid="{A3EFBC09-FFE6-8D42-B883-F259F0357BD1}"/>
+    <hyperlink ref="B16" r:id="rId55" xr:uid="{E728BDF6-5147-1C4A-A696-DF6A5FD73887}"/>
+    <hyperlink ref="B17" r:id="rId56" xr:uid="{235B1F81-EC67-9B4F-9C11-C88F2AAEDE73}"/>
+    <hyperlink ref="B13" r:id="rId57" xr:uid="{BEB02328-36C6-EF4B-BD7C-03AC16620C0A}"/>
+    <hyperlink ref="B10" r:id="rId58" xr:uid="{69C67F1C-7B71-8942-9F65-5EB09817F5C1}"/>
+    <hyperlink ref="B11" r:id="rId59" xr:uid="{99FA356B-3105-8448-BF94-31CC2EA7B8B0}"/>
+    <hyperlink ref="B12" r:id="rId60" xr:uid="{3AAAC9C7-7814-CC42-8EA1-0AE20D33DC6F}"/>
+    <hyperlink ref="B27" r:id="rId61" xr:uid="{05B9FD4F-503E-CB4F-92CC-F4D7C7E59EF1}"/>
+    <hyperlink ref="B30" r:id="rId62" xr:uid="{160E211B-D7C4-2941-8E98-012410217B20}"/>
+    <hyperlink ref="B26" r:id="rId63" xr:uid="{F215DA5F-1F45-1542-AA52-5C583AEAB357}"/>
+    <hyperlink ref="B33" r:id="rId64" xr:uid="{8CC9D8B6-48EE-964C-BA79-6A4C28F015A8}"/>
+    <hyperlink ref="B28" r:id="rId65" xr:uid="{2984391B-EBEE-8449-AD3E-7770A94F815D}"/>
+    <hyperlink ref="B34" r:id="rId66" xr:uid="{D20E98FC-DACD-5544-AF45-AA60437D39EA}"/>
+    <hyperlink ref="B32" r:id="rId67" xr:uid="{D76CB136-63E6-714E-8064-E9E00C4BD639}"/>
+    <hyperlink ref="B31" r:id="rId68" xr:uid="{1FF3BF12-37FD-0247-A673-FE383BD973E1}"/>
+    <hyperlink ref="B55" r:id="rId69" xr:uid="{808024C2-3C87-334E-AD57-67821FEA4A99}"/>
+    <hyperlink ref="B86" r:id="rId70" xr:uid="{DC173E76-B654-6B43-8A70-0035A374A744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId71"/>
